--- a/scores_overall.xlsx
+++ b/scores_overall.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github_project\Sentiment_classification\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B07E5AB1-4187-4B23-AE9A-83E020E90988}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B90A80A2-0491-44C9-93E8-5FD96254DA7D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="225" yWindow="165" windowWidth="19560" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="345" yWindow="3705" windowWidth="19560" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="28">
   <si>
     <t>location_traffic_convenience</t>
   </si>
@@ -134,6 +134,10 @@
   </si>
   <si>
     <t xml:space="preserve"> 0: 1, 1: 4, 2: 4, 3: 0.5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>batch</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -485,10 +489,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -498,7 +502,7 @@
     <col min="4" max="4" width="23.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>14</v>
       </c>
@@ -511,8 +515,11 @@
       <c r="E1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -528,8 +535,11 @@
       <c r="E2">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -545,8 +555,11 @@
       <c r="E3">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -562,8 +575,11 @@
       <c r="E4">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F4">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -579,8 +595,11 @@
       <c r="E5">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F5">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
@@ -596,8 +615,11 @@
       <c r="E6">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F6">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
@@ -613,8 +635,11 @@
       <c r="E7">
         <v>4</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F7">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
@@ -630,8 +655,11 @@
       <c r="E8">
         <v>5</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F8">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>12</v>
       </c>
@@ -647,8 +675,11 @@
       <c r="E9">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F9">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>13</v>
       </c>
@@ -664,8 +695,11 @@
       <c r="E10">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F10">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>15</v>
       </c>
@@ -681,8 +715,11 @@
       <c r="E11">
         <v>5</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F11">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>16</v>
       </c>
@@ -698,8 +735,11 @@
       <c r="E12">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F12">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>17</v>
       </c>
@@ -715,8 +755,11 @@
       <c r="E13">
         <v>3</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F13">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>18</v>
       </c>
@@ -732,8 +775,11 @@
       <c r="E14">
         <v>5</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F14">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>19</v>
       </c>
@@ -749,8 +795,11 @@
       <c r="E15">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="F15">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>20</v>
       </c>
@@ -766,8 +815,11 @@
       <c r="E16">
         <v>3</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F16">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>21</v>
       </c>
@@ -783,8 +835,11 @@
       <c r="E17">
         <v>5</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F17">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>23</v>
       </c>
@@ -800,8 +855,11 @@
       <c r="E18">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F18">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>22</v>
       </c>
@@ -817,8 +875,11 @@
       <c r="E19">
         <v>4</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F19">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>24</v>
       </c>
@@ -834,8 +895,11 @@
       <c r="E20">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F20">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>25</v>
       </c>
@@ -851,8 +915,11 @@
       <c r="E21">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F21">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B22" s="2">
         <f>AVERAGE(B2:B21)</f>
         <v>0.60356649999999989</v>
